--- a/FatArrow Daywise Sheet.xlsx
+++ b/FatArrow Daywise Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34ececa5aa1a26ac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G S Gowtham\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30094A46-681F-4C63-8A16-EDA44A729C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A0B407-1BB2-4B07-834E-B1760BA321FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFE48395-DEE6-4DC7-9ABE-D47263034BEE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EFE48395-DEE6-4DC7-9ABE-D47263034BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Progress</t>
+  </si>
+  <si>
+    <t>spring basics,login page</t>
+  </si>
+  <si>
+    <t>c++ exception handling, working on login page</t>
   </si>
 </sst>
 </file>
@@ -77,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,13 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C0440A-D4B0-48BF-BFBC-239DC6746510}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -407,6 +417,22 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
